--- a/PI/Planilha_de_riscos.xlsx
+++ b/PI/Planilha_de_riscos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicol\Documents\Bandtec\Github\projeto_Pi\PI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B586DD87-86C2-4B6A-8B92-885B6E242477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E868F65-9D7C-450A-8276-611CE3811DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9767F234-757F-415C-81D0-FA1D653AAFD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9767F234-757F-415C-81D0-FA1D653AAFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -258,40 +258,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,7 +675,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,72 +689,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -769,7 +769,7 @@
       <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="7">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -792,7 +792,7 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="8">
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -815,7 +815,7 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="6">
         <v>3</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -838,7 +838,7 @@
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="6">
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -861,7 +861,7 @@
       <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="8">
         <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -884,7 +884,7 @@
       <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="8">
         <v>6</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -907,7 +907,7 @@
       <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="6">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">

--- a/PI/Planilha_de_riscos.xlsx
+++ b/PI/Planilha_de_riscos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicol\Documents\Bandtec\Github\projeto_Pi\PI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E868F65-9D7C-450A-8276-611CE3811DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11390169-D55D-4F27-B053-F16F45D0BB3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9767F234-757F-415C-81D0-FA1D653AAFD8}"/>
   </bookViews>
@@ -309,70 +309,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>100067</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CAC31A6-06A7-49B6-989A-D2E78EF07DF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="3299" t="57918" r="54061"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4819650" y="3048000"/>
-          <a:ext cx="3200400" cy="2214617"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC621668-3902-4614-8024-9437DE88BB06}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,6 +860,5 @@
     <mergeCell ref="C2:C5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>